--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/20/seed4/result_data_RandomForest.xlsx
@@ -539,7 +539,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.749599999999997</v>
+        <v>-7.777099999999997</v>
       </c>
       <c r="E6" t="n">
         <v>16.12</v>
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.97879999999999</v>
+        <v>-12.7401</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -584,7 +584,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.957999999999995</v>
+        <v>5.958099999999994</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.8112</v>
+        <v>-10.5877</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -652,7 +652,7 @@
         <v>-22.15</v>
       </c>
       <c r="B13" t="n">
-        <v>6.265799999999996</v>
+        <v>5.878199999999998</v>
       </c>
       <c r="C13" t="n">
         <v>-15.83</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.317</v>
+        <v>-12.7302</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.546200000000001</v>
+        <v>-8.727599999999999</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>5.844800000000001</v>
+        <v>6.246200000000003</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.495399999999993</v>
+        <v>6.733299999999998</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.80190000000001</v>
+        <v>-12.01500000000001</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.823600000000001</v>
+        <v>8.9757</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -873,10 +873,10 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.395000000000005</v>
+        <v>5.36640000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>-13.06230000000001</v>
+        <v>-12.7176</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -890,10 +890,10 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.3388</v>
+        <v>5.603300000000004</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.76079999999999</v>
+        <v>-12.97479999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -913,7 +913,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.332599999999999</v>
+        <v>-8.292900000000001</v>
       </c>
       <c r="E28" t="n">
         <v>16.42</v>
@@ -924,10 +924,10 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.023499999999997</v>
+        <v>5.189199999999997</v>
       </c>
       <c r="C29" t="n">
-        <v>-10.50350000000001</v>
+        <v>-10.6231</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -998,7 +998,7 @@
         <v>-12.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-7.665900000000001</v>
+        <v>-7.571800000000001</v>
       </c>
       <c r="E33" t="n">
         <v>17.52</v>
@@ -1026,13 +1026,13 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.3752</v>
+        <v>8.259600000000006</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.358600000000001</v>
+        <v>-8.443699999999996</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.160300000000005</v>
+        <v>9.082000000000006</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.9204</v>
+        <v>-13.4028</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1080,10 +1080,10 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-13.0508</v>
+        <v>-12.9066</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.081899999999996</v>
+        <v>-8.0604</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.199800000000003</v>
+        <v>-8.2783</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.489</v>
+        <v>-7.529299999999999</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1196,13 +1196,13 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.855500000000005</v>
+        <v>5.870500000000001</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.795499999999997</v>
+        <v>-7.819899999999998</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1233,10 +1233,10 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-11.7265</v>
+        <v>-11.70150000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.591000000000003</v>
+        <v>-7.385300000000001</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1301,10 +1301,10 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.6582</v>
+        <v>-12.3206</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.926799999999999</v>
+        <v>-7.818099999999996</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.34709999999999</v>
+        <v>-11.29800000000001</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1355,7 +1355,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-8.287600000000005</v>
+        <v>-8.135600000000004</v>
       </c>
       <c r="E54" t="n">
         <v>15.77</v>
@@ -1366,10 +1366,10 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.267899999999996</v>
+        <v>6.405899999999995</v>
       </c>
       <c r="C55" t="n">
-        <v>-14.20560000000001</v>
+        <v>-13.5407</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1400,13 +1400,13 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.049499999999996</v>
+        <v>5.160399999999994</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-7.926</v>
+        <v>-8.046500000000002</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1491,7 +1491,7 @@
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-8.385799999999993</v>
+        <v>-8.454799999999997</v>
       </c>
       <c r="E62" t="n">
         <v>16.65</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.962899999999999</v>
+        <v>-7.976299999999997</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.189500000000002</v>
+        <v>-6.123200000000002</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1604,10 +1604,10 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.879599999999995</v>
+        <v>6.166099999999992</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.2842</v>
+        <v>-11.2792</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1624,10 +1624,10 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.38</v>
+        <v>-12.46110000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>-8.005499999999996</v>
+        <v>-8.0665</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1723,10 +1723,10 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.314300000000004</v>
+        <v>5.474100000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>-11.3807</v>
+        <v>-12.4554</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.896500000000001</v>
+        <v>9.7805</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1811,10 +1811,10 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-12.53660000000001</v>
+        <v>-12.46970000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>-8.117599999999999</v>
+        <v>-8.1685</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.154600000000003</v>
+        <v>5.457300000000004</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1842,10 +1842,10 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>6.457999999999993</v>
+        <v>6.328399999999995</v>
       </c>
       <c r="C83" t="n">
-        <v>-14.53960000000001</v>
+        <v>-13.9741</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.676699999999995</v>
+        <v>-7.522999999999995</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>6.249499999999997</v>
+        <v>6.137599999999999</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2032,7 +2032,7 @@
         <v>4.26</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.1601</v>
+        <v>-10.1527</v>
       </c>
       <c r="D94" t="n">
         <v>-5.14</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.970600000000005</v>
+        <v>-7.860100000000004</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2080,7 +2080,7 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>5.731299999999996</v>
+        <v>6.160999999999998</v>
       </c>
       <c r="C97" t="n">
         <v>-13.93</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.7104</v>
+        <v>-7.5701</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.91669999999999</v>
+        <v>-12.4945</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.52200000000001</v>
+        <v>-13.2342</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
